--- a/OGN.xlsx
+++ b/OGN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16129E2A-7773-4836-9325-6364E4A305AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62001AC5-9224-4930-9F7B-340ADF5B60FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-51135" yWindow="1140" windowWidth="27390" windowHeight="19350" activeTab="1" xr2:uid="{BC838FB8-C4DC-486C-843A-A179C3ABB7CD}"/>
+    <workbookView xWindow="39130" yWindow="1900" windowWidth="27510" windowHeight="13250" xr2:uid="{BC838FB8-C4DC-486C-843A-A179C3ABB7CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -321,7 +321,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -341,7 +341,6 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -786,13 +785,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0328BA0B-4391-4CEB-A031-34D23FCB89C6}">
   <dimension ref="B2:M18"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>47</v>
       </c>
@@ -800,10 +797,10 @@
         <v>0</v>
       </c>
       <c r="L2" s="1">
-        <v>19.079999999999998</v>
-      </c>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
+        <v>9.49</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>46</v>
       </c>
@@ -817,7 +814,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>48</v>
       </c>
@@ -826,10 +823,10 @@
       </c>
       <c r="L4" s="2">
         <f>+L2*L3</f>
-        <v>4912.5939411599993</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
+        <v>2443.4232967299999</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>49</v>
       </c>
@@ -837,13 +834,13 @@
         <v>3</v>
       </c>
       <c r="L5" s="2">
-        <v>704</v>
+        <v>675</v>
       </c>
       <c r="M5" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>50</v>
       </c>
@@ -851,14 +848,14 @@
         <v>4</v>
       </c>
       <c r="L6" s="2">
-        <f>9+8647</f>
-        <v>8656</v>
+        <f>8860+20</f>
+        <v>8880</v>
       </c>
       <c r="M6" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>51</v>
       </c>
@@ -867,30 +864,30 @@
       </c>
       <c r="L7" s="2">
         <f>+L4-L5+L6</f>
-        <v>12864.593941159999</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
+        <v>10648.423296729999</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="K11" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>43</v>
       </c>
@@ -904,26 +901,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CBDE660-43BF-4EAE-B265-9DF691B06303}">
   <dimension ref="A1:AN54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="L18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="V45" sqref="V45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="22" width="9.140625" style="3"/>
+    <col min="2" max="2" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="22" width="9.1796875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
       <c r="C2" s="3" t="s">
         <v>22</v>
       </c>
@@ -1048,7 +1045,7 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>46</v>
       </c>
@@ -1077,7 +1074,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>49</v>
       </c>
@@ -1106,7 +1103,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>50</v>
       </c>
@@ -1135,7 +1132,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>55</v>
       </c>
@@ -1164,7 +1161,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>56</v>
       </c>
@@ -1193,7 +1190,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>57</v>
       </c>
@@ -1222,7 +1219,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>58</v>
       </c>
@@ -1251,7 +1248,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>52</v>
       </c>
@@ -1280,7 +1277,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>59</v>
       </c>
@@ -1309,7 +1306,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>60</v>
       </c>
@@ -1338,7 +1335,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>61</v>
       </c>
@@ -1367,7 +1364,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>51</v>
       </c>
@@ -1396,7 +1393,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>62</v>
       </c>
@@ -1425,7 +1422,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>63</v>
       </c>
@@ -1454,7 +1451,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>64</v>
       </c>
@@ -1483,7 +1480,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>66</v>
       </c>
@@ -1512,7 +1509,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>65</v>
       </c>
@@ -1541,7 +1538,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>79</v>
       </c>
@@ -1570,7 +1567,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>68</v>
       </c>
@@ -1599,7 +1596,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>67</v>
       </c>
@@ -1628,7 +1625,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>69</v>
       </c>
@@ -1657,7 +1654,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>70</v>
       </c>
@@ -1686,7 +1683,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>71</v>
       </c>
@@ -1715,7 +1712,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>72</v>
       </c>
@@ -1744,7 +1741,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="27" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>74</v>
       </c>
@@ -1773,7 +1770,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>73</v>
       </c>
@@ -1802,7 +1799,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>75</v>
       </c>
@@ -1831,7 +1828,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="30" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>76</v>
       </c>
@@ -1860,7 +1857,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>77</v>
       </c>
@@ -1889,7 +1886,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>78</v>
       </c>
@@ -1918,7 +1915,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>45</v>
       </c>
@@ -1955,17 +1952,17 @@
         <v>103</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="36" spans="2:29" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:29" s="7" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B36" s="7" t="s">
         <v>8</v>
       </c>
@@ -2000,35 +1997,35 @@
         <v>1585</v>
       </c>
       <c r="M36" s="8">
-        <f>SUM(M3:M35)</f>
+        <f t="shared" ref="M36:T36" si="1">SUM(M3:M35)</f>
         <v>1537</v>
       </c>
       <c r="N36" s="8">
-        <f>SUM(N3:N35)</f>
+        <f t="shared" si="1"/>
         <v>1485</v>
       </c>
       <c r="O36" s="8">
-        <f>SUM(O3:O35)</f>
+        <f t="shared" si="1"/>
         <v>1538</v>
       </c>
       <c r="P36" s="8">
-        <f>SUM(P3:P35)</f>
+        <f t="shared" si="1"/>
         <v>1608</v>
       </c>
       <c r="Q36" s="8">
-        <f>SUM(Q3:Q35)</f>
+        <f t="shared" si="1"/>
         <v>1519</v>
       </c>
       <c r="R36" s="8">
-        <f>SUM(R3:R35)</f>
+        <f t="shared" si="1"/>
         <v>1598</v>
       </c>
       <c r="S36" s="8">
-        <f>SUM(S3:S35)</f>
+        <f t="shared" si="1"/>
         <v>1622</v>
       </c>
       <c r="T36" s="8">
-        <f>SUM(T3:T35)</f>
+        <f t="shared" si="1"/>
         <v>1607</v>
       </c>
       <c r="U36" s="8">
@@ -2060,7 +2057,7 @@
         <v>6346</v>
       </c>
     </row>
-    <row r="37" spans="2:29" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B37" s="2" t="s">
         <v>20</v>
       </c>
@@ -2126,28 +2123,28 @@
         <f>+V36-V38</f>
         <v>671.16000000000008</v>
       </c>
-      <c r="Y37" s="9">
+      <c r="Y37" s="2">
         <f>SUM(C37:F37)</f>
         <v>2119</v>
       </c>
-      <c r="Z37" s="9">
+      <c r="Z37" s="2">
         <f>SUM(G37:J37)</f>
         <v>2382</v>
       </c>
-      <c r="AA37" s="9">
+      <c r="AA37" s="2">
         <f>SUM(K37:N37)</f>
         <v>2294</v>
       </c>
-      <c r="AB37" s="9">
+      <c r="AB37" s="2">
         <f>SUM(O37:R37)</f>
         <v>2466</v>
       </c>
-      <c r="AC37" s="9">
+      <c r="AC37" s="2">
         <f>SUM(S37:V37)</f>
         <v>2642.1400000000003</v>
       </c>
     </row>
-    <row r="38" spans="2:29" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B38" s="2" t="s">
         <v>21</v>
       </c>
@@ -2179,39 +2176,39 @@
         <v>1002</v>
       </c>
       <c r="L38" s="4">
-        <f>+L36-L37</f>
+        <f t="shared" ref="L38:Q38" si="2">+L36-L37</f>
         <v>997</v>
       </c>
       <c r="M38" s="4">
-        <f>+M36-M37</f>
+        <f t="shared" si="2"/>
         <v>986</v>
       </c>
       <c r="N38" s="4">
-        <f>+N36-N37</f>
+        <f t="shared" si="2"/>
         <v>895</v>
       </c>
       <c r="O38" s="4">
-        <f>+O36-O37</f>
+        <f t="shared" si="2"/>
         <v>958</v>
       </c>
       <c r="P38" s="4">
-        <f>+P36-P37</f>
+        <f t="shared" si="2"/>
         <v>968</v>
       </c>
       <c r="Q38" s="4">
-        <f>+Q36-Q37</f>
+        <f t="shared" si="2"/>
         <v>907</v>
       </c>
       <c r="R38" s="4">
-        <f t="shared" ref="R38:T38" si="1">+R36-R37</f>
+        <f t="shared" ref="R38:T38" si="3">+R36-R37</f>
         <v>964</v>
       </c>
       <c r="S38" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>957</v>
       </c>
       <c r="T38" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>939</v>
       </c>
       <c r="U38" s="4">
@@ -2227,23 +2224,23 @@
         <v>4413</v>
       </c>
       <c r="Z38" s="2">
-        <f t="shared" ref="Z38:AC38" si="2">+Z36-Z37</f>
+        <f t="shared" ref="Z38:AC38" si="4">+Z36-Z37</f>
         <v>3922</v>
       </c>
       <c r="AA38" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3880</v>
       </c>
       <c r="AB38" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3797</v>
       </c>
       <c r="AC38" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3703.8599999999997</v>
       </c>
     </row>
-    <row r="39" spans="2:29" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B39" s="2" t="s">
         <v>30</v>
       </c>
@@ -2310,7 +2307,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="40" spans="2:29" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B40" s="2" t="s">
         <v>31</v>
       </c>
@@ -2377,68 +2374,68 @@
         <v>127</v>
       </c>
     </row>
-    <row r="41" spans="2:29" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B41" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C41" s="4">
-        <f t="shared" ref="C41:S41" si="3">+C39+C40</f>
+        <f t="shared" ref="C41:S41" si="5">+C39+C40</f>
         <v>362</v>
       </c>
       <c r="D41" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>335</v>
       </c>
       <c r="E41" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>375</v>
       </c>
       <c r="F41" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>494</v>
       </c>
       <c r="G41" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>449</v>
       </c>
       <c r="H41" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>492</v>
       </c>
       <c r="I41" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>499</v>
       </c>
       <c r="J41" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>671</v>
       </c>
       <c r="K41" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>467</v>
       </c>
       <c r="L41" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>626</v>
       </c>
       <c r="M41" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>577</v>
       </c>
       <c r="N41" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>612</v>
       </c>
       <c r="O41" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>572</v>
       </c>
       <c r="P41" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>579</v>
       </c>
       <c r="Q41" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>675</v>
       </c>
       <c r="R41" s="4">
@@ -2446,7 +2443,7 @@
         <v>528</v>
       </c>
       <c r="S41" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>558</v>
       </c>
       <c r="T41" s="4">
@@ -2462,92 +2459,92 @@
         <v>528</v>
       </c>
     </row>
-    <row r="42" spans="2:29" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B42" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C42" s="4">
-        <f t="shared" ref="C42" si="4">+C38-C41</f>
+        <f t="shared" ref="C42" si="6">+C38-C41</f>
         <v>880</v>
       </c>
       <c r="D42" s="4">
-        <f t="shared" ref="D42" si="5">+D38-D41</f>
+        <f t="shared" ref="D42" si="7">+D38-D41</f>
         <v>731</v>
       </c>
       <c r="E42" s="4">
-        <f t="shared" ref="E42:H42" si="6">+E38-E41</f>
+        <f t="shared" ref="E42:H42" si="8">+E38-E41</f>
         <v>703</v>
       </c>
       <c r="F42" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>533</v>
       </c>
       <c r="G42" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>466</v>
       </c>
       <c r="H42" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>520</v>
       </c>
       <c r="I42" s="4">
-        <f>+I38-I41</f>
+        <f t="shared" ref="I42:V42" si="9">+I38-I41</f>
         <v>492</v>
       </c>
       <c r="J42" s="4">
-        <f>+J38-J41</f>
+        <f t="shared" si="9"/>
         <v>333</v>
       </c>
       <c r="K42" s="4">
-        <f>+K38-K41</f>
+        <f t="shared" si="9"/>
         <v>535</v>
       </c>
       <c r="L42" s="4">
-        <f>+L38-L41</f>
+        <f t="shared" si="9"/>
         <v>371</v>
       </c>
       <c r="M42" s="4">
-        <f>+M38-M41</f>
+        <f t="shared" si="9"/>
         <v>409</v>
       </c>
       <c r="N42" s="4">
-        <f>+N38-N41</f>
+        <f t="shared" si="9"/>
         <v>283</v>
       </c>
       <c r="O42" s="4">
-        <f>+O38-O41</f>
+        <f t="shared" si="9"/>
         <v>386</v>
       </c>
       <c r="P42" s="4">
-        <f>+P38-P41</f>
+        <f t="shared" si="9"/>
         <v>389</v>
       </c>
       <c r="Q42" s="4">
-        <f>+Q38-Q41</f>
+        <f t="shared" si="9"/>
         <v>232</v>
       </c>
       <c r="R42" s="4">
-        <f>+R38-R41</f>
+        <f t="shared" si="9"/>
         <v>436</v>
       </c>
       <c r="S42" s="4">
-        <f>+S38-S41</f>
+        <f t="shared" si="9"/>
         <v>399</v>
       </c>
       <c r="T42" s="4">
-        <f>+T38-T41</f>
+        <f t="shared" si="9"/>
         <v>386</v>
       </c>
       <c r="U42" s="4">
-        <f>+U38-U41</f>
+        <f t="shared" si="9"/>
         <v>206.01999999999998</v>
       </c>
       <c r="V42" s="4">
-        <f>+V38-V41</f>
+        <f t="shared" si="9"/>
         <v>398.83999999999992</v>
       </c>
     </row>
-    <row r="43" spans="2:29" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B43" s="2" t="s">
         <v>32</v>
       </c>
@@ -2572,7 +2569,7 @@
       <c r="U43" s="4"/>
       <c r="V43" s="4"/>
     </row>
-    <row r="44" spans="2:29" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B44" s="2" t="s">
         <v>35</v>
       </c>
@@ -2634,7 +2631,7 @@
       <c r="U44" s="4"/>
       <c r="V44" s="4"/>
     </row>
-    <row r="45" spans="2:29" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B45" s="2" t="s">
         <v>36</v>
       </c>
@@ -2705,7 +2702,7 @@
         <v>398.83999999999992</v>
       </c>
     </row>
-    <row r="46" spans="2:29" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B46" s="2" t="s">
         <v>37</v>
       </c>
@@ -2766,7 +2763,7 @@
       <c r="U46" s="4"/>
       <c r="V46" s="4"/>
     </row>
-    <row r="47" spans="2:29" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B47" s="2" t="s">
         <v>38</v>
       </c>
@@ -2831,7 +2828,7 @@
       <c r="U47" s="4"/>
       <c r="V47" s="4"/>
     </row>
-    <row r="48" spans="2:29" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B48" s="2" t="s">
         <v>42</v>
       </c>
@@ -2889,7 +2886,7 @@
       <c r="U48" s="4"/>
       <c r="V48" s="4"/>
     </row>
-    <row r="49" spans="2:29" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B49" s="2" t="s">
         <v>41</v>
       </c>
@@ -2928,7 +2925,7 @@
       <c r="U49" s="4"/>
       <c r="V49" s="4"/>
     </row>
-    <row r="50" spans="2:29" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
@@ -2950,7 +2947,7 @@
       <c r="U50" s="4"/>
       <c r="V50" s="4"/>
     </row>
-    <row r="51" spans="2:29" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
@@ -2972,84 +2969,84 @@
       <c r="U51" s="4"/>
       <c r="V51" s="4"/>
     </row>
-    <row r="52" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B52" s="2" t="s">
         <v>39</v>
       </c>
       <c r="G52" s="5">
-        <f t="shared" ref="G52" si="7">+G36/C36-1</f>
+        <f t="shared" ref="G52" si="10">+G36/C36-1</f>
         <v>-0.15393258426966294</v>
       </c>
       <c r="H52" s="5">
-        <f t="shared" ref="H52" si="8">+H36/D36-1</f>
+        <f t="shared" ref="H52" si="11">+H36/D36-1</f>
         <v>4.5216251638269922E-2</v>
       </c>
       <c r="I52" s="5">
-        <f t="shared" ref="I52" si="9">+I36/E36-1</f>
+        <f t="shared" ref="I52" si="12">+I36/E36-1</f>
         <v>-8.0595164290142574E-3</v>
       </c>
       <c r="J52" s="5">
-        <f t="shared" ref="J52" si="10">+J36/F36-1</f>
+        <f t="shared" ref="J52" si="13">+J36/F36-1</f>
         <v>-6.1996280223186595E-3</v>
       </c>
       <c r="K52" s="5">
-        <f t="shared" ref="K52" si="11">+K36/G36-1</f>
+        <f t="shared" ref="K52" si="14">+K36/G36-1</f>
         <v>4.0504648074369154E-2</v>
       </c>
       <c r="L52" s="5">
-        <f t="shared" ref="L52" si="12">+L36/H36-1</f>
+        <f t="shared" ref="L52" si="15">+L36/H36-1</f>
         <v>-6.2695924764890609E-3</v>
       </c>
       <c r="M52" s="5">
-        <f t="shared" ref="M52" si="13">+M36/I36-1</f>
+        <f t="shared" ref="M52" si="16">+M36/I36-1</f>
         <v>-3.9375000000000049E-2</v>
       </c>
       <c r="N52" s="5">
-        <f t="shared" ref="N52" si="14">+N36/J36-1</f>
+        <f t="shared" ref="N52" si="17">+N36/J36-1</f>
         <v>-7.3611977542108575E-2</v>
       </c>
       <c r="O52" s="5">
-        <f t="shared" ref="O52" si="15">+O36/K36-1</f>
+        <f t="shared" ref="O52" si="18">+O36/K36-1</f>
         <v>-1.8506700701978351E-2</v>
       </c>
       <c r="P52" s="5">
-        <f t="shared" ref="P52:S52" si="16">+P36/L36-1</f>
+        <f t="shared" ref="P52:S52" si="19">+P36/L36-1</f>
         <v>1.4511041009463765E-2</v>
       </c>
       <c r="Q52" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>-1.1711125569290881E-2</v>
       </c>
       <c r="R52" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>7.6094276094275992E-2</v>
       </c>
       <c r="S52" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>5.4616384915474603E-2</v>
       </c>
       <c r="T52" s="5">
         <f>+T36/P36-1</f>
         <v>-6.2189054726369264E-4</v>
       </c>
-      <c r="Z52" s="10">
+      <c r="Z52" s="9">
         <f>+Z36/Y36-1</f>
         <v>-3.4905082669932641E-2</v>
       </c>
-      <c r="AA52" s="10">
-        <f t="shared" ref="AA52:AC52" si="17">+AA36/Z36-1</f>
+      <c r="AA52" s="9">
+        <f t="shared" ref="AA52:AC52" si="20">+AA36/Z36-1</f>
         <v>-2.062182741116747E-2</v>
       </c>
-      <c r="AB52" s="10">
-        <f t="shared" si="17"/>
+      <c r="AB52" s="9">
+        <f t="shared" si="20"/>
         <v>1.4415289925493902E-2</v>
       </c>
-      <c r="AC52" s="10">
-        <f t="shared" si="17"/>
+      <c r="AC52" s="9">
+        <f t="shared" si="20"/>
         <v>1.3252434935334456E-2</v>
       </c>
     </row>
-    <row r="53" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B53" s="2"/>
       <c r="G53" s="5"/>
       <c r="H53" s="5"/>
@@ -3072,7 +3069,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="54" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B54" s="2" t="s">
         <v>40</v>
       </c>
@@ -3081,75 +3078,75 @@
         <v>0.60756972111553786</v>
       </c>
       <c r="H54" s="5">
-        <f t="shared" ref="H54:T54" si="18">+H38/H36</f>
+        <f t="shared" ref="H54:T54" si="21">+H38/H36</f>
         <v>0.6344827586206897</v>
       </c>
       <c r="I54" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0.61937500000000001</v>
       </c>
       <c r="J54" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0.62632563942607611</v>
       </c>
       <c r="K54" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0.63943841735800888</v>
       </c>
       <c r="L54" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0.6290220820189274</v>
       </c>
       <c r="M54" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0.64150943396226412</v>
       </c>
       <c r="N54" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0.60269360269360273</v>
       </c>
       <c r="O54" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0.62288686605981791</v>
       </c>
       <c r="P54" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0.60199004975124382</v>
       </c>
       <c r="Q54" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0.59710335747202103</v>
       </c>
       <c r="R54" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0.60325406758448064</v>
       </c>
       <c r="S54" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0.59001233045622692</v>
       </c>
       <c r="T54" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0.58431860609831987</v>
       </c>
       <c r="Y54" s="5">
-        <f t="shared" ref="Y54:AC54" si="19">+Y38/Y36</f>
+        <f t="shared" ref="Y54:AC54" si="22">+Y38/Y36</f>
         <v>0.67559706062461722</v>
       </c>
       <c r="Z54" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0.62214467005076146</v>
       </c>
       <c r="AA54" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0.62844185293164889</v>
       </c>
       <c r="AB54" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0.6062589813188568</v>
       </c>
       <c r="AC54" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0.5836526946107784</v>
       </c>
     </row>
